--- a/output/BTG_01214092000175.xlsx
+++ b/output/BTG_01214092000175.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.551912627662832</v>
+        <v>5.561683736038725</v>
       </c>
       <c r="C192">
-        <v>0.007065649581687428</v>
+        <v>0.008567523639371855</v>
       </c>
     </row>
   </sheetData>

--- a/output/BTG_01214092000175.xlsx
+++ b/output/BTG_01214092000175.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BTG PACTUAL DISCOVERY FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.01242774389482726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.03259548493608433</v>
-      </c>
-      <c r="C3">
         <v>0.019920178168638</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.03943809552654254</v>
-      </c>
-      <c r="C4">
         <v>0.006626612928567921</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.04112083733245564</v>
-      </c>
-      <c r="C5">
         <v>0.001618895644825091</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.06889174381369245</v>
-      </c>
-      <c r="C6">
         <v>0.02667404732037726</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.09319741088253219</v>
-      </c>
-      <c r="C7">
         <v>0.02273912883087648</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.09248889530897508</v>
-      </c>
-      <c r="C8">
         <v>-0.0006481131097677562</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1108745266829725</v>
-      </c>
-      <c r="C9">
         <v>0.01682912426198868</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1522351381660789</v>
-      </c>
-      <c r="C10">
         <v>0.03723247809688068</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1578922619065266</v>
-      </c>
-      <c r="C11">
         <v>0.004909695558713567</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1981978449588142</v>
-      </c>
-      <c r="C12">
         <v>0.03480944158476573</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.224741505703524</v>
-      </c>
-      <c r="C13">
         <v>0.02215298655091646</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2841902823053133</v>
-      </c>
-      <c r="C14">
         <v>0.04853985622675561</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.3365870719752233</v>
-      </c>
-      <c r="C15">
         <v>0.04080142202590875</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2958239700275938</v>
-      </c>
-      <c r="C16">
         <v>-0.0304979023082943</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3441854158848421</v>
-      </c>
-      <c r="C17">
         <v>0.03732099959242041</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.2833035640780137</v>
-      </c>
-      <c r="C18">
         <v>-0.04529274837188402</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3668773666197751</v>
-      </c>
-      <c r="C19">
         <v>0.0651239542078299</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4129326246274849</v>
-      </c>
-      <c r="C20">
         <v>0.03369377468119339</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4479941283735784</v>
-      </c>
-      <c r="C21">
         <v>0.02481470321724455</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4550446743883383</v>
-      </c>
-      <c r="C22">
         <v>0.004869181356887964</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.498399792264087</v>
-      </c>
-      <c r="C23">
         <v>0.0297964170027798</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.5409676983236067</v>
-      </c>
-      <c r="C24">
         <v>0.02840891081224695</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.5959450597145151</v>
-      </c>
-      <c r="C25">
         <v>0.03567716666009124</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.6331934322886861</v>
-      </c>
-      <c r="C26">
         <v>0.02333938273591585</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.6391937436930435</v>
-      </c>
-      <c r="C27">
         <v>0.003673974733016783</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.6561243535858761</v>
-      </c>
-      <c r="C28">
         <v>0.01032862037082238</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.7174522800809251</v>
-      </c>
-      <c r="C29">
         <v>0.03703099127928433</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.7591963417774494</v>
-      </c>
-      <c r="C30">
         <v>0.02430580586178355</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.7907245781971448</v>
-      </c>
-      <c r="C31">
         <v>0.01792195428728549</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.7892745167960642</v>
-      </c>
-      <c r="C32">
         <v>-0.0008097623826330835</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.7575813230761463</v>
-      </c>
-      <c r="C33">
         <v>-0.01771287380578623</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.8065117926458196</v>
-      </c>
-      <c r="C34">
         <v>0.02783966177111763</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.8122375539190492</v>
-      </c>
-      <c r="C35">
         <v>0.003169512259227236</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.7388151233229698</v>
-      </c>
-      <c r="C36">
         <v>-0.04051479367994548</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.7855592505535129</v>
-      </c>
-      <c r="C37">
         <v>0.02688274710954475</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.7149629017876156</v>
-      </c>
-      <c r="C38">
         <v>-0.03953738793266759</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.7786427098308539</v>
-      </c>
-      <c r="C39">
         <v>0.03713188662965283</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.7020949022929341</v>
-      </c>
-      <c r="C40">
         <v>-0.0430372030958367</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.7725304502502996</v>
-      </c>
-      <c r="C41">
         <v>0.04138168081138138</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.7739881873060355</v>
-      </c>
-      <c r="C42">
         <v>0.0008224045209095365</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.7710315362168836</v>
-      </c>
-      <c r="C43">
         <v>-0.001666668983654196</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.767012873790873</v>
-      </c>
-      <c r="C44">
         <v>-0.002269108338180614</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.7361459074891861</v>
-      </c>
-      <c r="C45">
         <v>-0.01746844449155949</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.7380272741780143</v>
-      </c>
-      <c r="C46">
         <v>0.001083645493568541</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.7627143686343156</v>
-      </c>
-      <c r="C47">
         <v>0.01420408921256833</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.7843722396565496</v>
-      </c>
-      <c r="C48">
         <v>0.01228665937466289</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.8156016243237008</v>
-      </c>
-      <c r="C49">
         <v>0.01750160867396255</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.8492982747483679</v>
-      </c>
-      <c r="C50">
         <v>0.01855949563672543</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.8694802032812621</v>
-      </c>
-      <c r="C51">
         <v>0.01091329008871766</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.9010092432893511</v>
-      </c>
-      <c r="C52">
         <v>0.01686513713959092</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.9192332148465339</v>
-      </c>
-      <c r="C53">
         <v>0.009586471828853194</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.9541042681433702</v>
-      </c>
-      <c r="C54">
         <v>0.01816926313440481</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.9786541706639416</v>
-      </c>
-      <c r="C55">
         <v>0.01256325106126321</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.001723364584701</v>
-      </c>
-      <c r="C56">
         <v>0.01165903282280945</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.013999784472051</v>
-      </c>
-      <c r="C57">
         <v>0.006132925310534443</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.031835345735732</v>
-      </c>
-      <c r="C58">
         <v>0.008855791048833828</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.039784968613084</v>
-      </c>
-      <c r="C59">
         <v>0.003912533018010977</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.054439178846827</v>
-      </c>
-      <c r="C60">
         <v>0.007184193657288285</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.071021918095112</v>
-      </c>
-      <c r="C61">
         <v>0.00807166229062739</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.070347485753417</v>
-      </c>
-      <c r="C62">
         <v>-0.0003256519575202121</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.083061833605274</v>
-      </c>
-      <c r="C63">
         <v>0.006141166127593412</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.116652992270837</v>
-      </c>
-      <c r="C64">
         <v>0.0161258576791381</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.138581340062343</v>
-      </c>
-      <c r="C65">
         <v>0.01035991627894539</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.158679418302867</v>
-      </c>
-      <c r="C66">
         <v>0.009397855421266588</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.166518589341032</v>
-      </c>
-      <c r="C67">
         <v>0.00363146605822906</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.215592873523195</v>
-      </c>
-      <c r="C68">
         <v>0.02265121768333844</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.241140056950032</v>
-      </c>
-      <c r="C69">
         <v>0.01153063079960726</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.273565375116309</v>
-      </c>
-      <c r="C70">
         <v>0.01446822480626442</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.298154348658771</v>
-      </c>
-      <c r="C71">
         <v>0.01081516010561345</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.30368295367615</v>
-      </c>
-      <c r="C72">
         <v>0.002405671760299821</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.332898989188327</v>
-      </c>
-      <c r="C73">
         <v>0.01268231614318083</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.347767702103243</v>
-      </c>
-      <c r="C74">
         <v>0.006373491944496434</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.364987492977954</v>
-      </c>
-      <c r="C75">
         <v>0.007334537765079752</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.405582367851898</v>
-      </c>
-      <c r="C76">
         <v>0.01716494272992009</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.420123022732657</v>
-      </c>
-      <c r="C77">
         <v>0.006044546665738837</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.449125857931059</v>
-      </c>
-      <c r="C78">
         <v>0.01198403342556253</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.459867451696787</v>
-      </c>
-      <c r="C79">
         <v>0.004385888839049779</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.491512346983261</v>
-      </c>
-      <c r="C80">
         <v>0.01286447172779437</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.564492942512644</v>
-      </c>
-      <c r="C81">
         <v>0.02929168527611292</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.640491788338032</v>
-      </c>
-      <c r="C82">
         <v>0.02963503800908307</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.667381241481444</v>
-      </c>
-      <c r="C83">
         <v>0.01018350189997608</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.701575867320573</v>
-      </c>
-      <c r="C84">
         <v>0.01281954949197228</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.699369269011938</v>
-      </c>
-      <c r="C85">
         <v>-0.0008167819143363175</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.719690384596574</v>
-      </c>
-      <c r="C86">
         <v>0.007528097699679881</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.781742843013161</v>
-      </c>
-      <c r="C87">
         <v>0.02281600095659098</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.831394740990576</v>
-      </c>
-      <c r="C88">
         <v>0.01784920489761466</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.903571387897188</v>
-      </c>
-      <c r="C89">
         <v>0.02549155222396204</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.936761168015176</v>
-      </c>
-      <c r="C90">
         <v>0.01143067473950543</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.98044722575932</v>
-      </c>
-      <c r="C91">
         <v>0.01487559091285218</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2.028197944437515</v>
-      </c>
-      <c r="C92">
         <v>0.01602132668731637</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>2.053199685314785</v>
-      </c>
-      <c r="C93">
         <v>0.008256309969166598</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>2.077895730083193</v>
-      </c>
-      <c r="C94">
         <v>0.00808857831578802</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>2.122230643890163</v>
-      </c>
-      <c r="C95">
         <v>0.01440429361321227</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>2.154295511097043</v>
-      </c>
-      <c r="C96">
         <v>0.01026985859280671</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>2.206966878608025</v>
-      </c>
-      <c r="C97">
         <v>0.01669829834448944</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>2.236045029435858</v>
-      </c>
-      <c r="C98">
         <v>0.009067181523388257</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>2.235048967767155</v>
-      </c>
-      <c r="C99">
         <v>-0.0003078021658051711</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>2.25318415666183</v>
-      </c>
-      <c r="C100">
         <v>0.005605846797178904</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2.245973558007042</v>
-      </c>
-      <c r="C101">
         <v>-0.00221647417039772</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.279205595790549</v>
-      </c>
-      <c r="C102">
         <v>0.01023792621524344</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2.276144533630132</v>
-      </c>
-      <c r="C103">
         <v>-0.0009334767433752944</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>2.294285707872841</v>
-      </c>
-      <c r="C104">
         <v>0.005537354672996431</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>2.288831337797054</v>
-      </c>
-      <c r="C105">
         <v>-0.00165570644426849</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>2.304997374898398</v>
-      </c>
-      <c r="C106">
         <v>0.004915435132095247</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.329514274874947</v>
-      </c>
-      <c r="C107">
         <v>0.007418129939453566</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.358042771241633</v>
-      </c>
-      <c r="C108">
         <v>0.008568365837013037</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>2.388391644709075</v>
-      </c>
-      <c r="C109">
         <v>0.009037667336268207</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>2.38829571288086</v>
-      </c>
-      <c r="C110">
         <v>-2.831190673180384e-05</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>2.428787589890714</v>
-      </c>
-      <c r="C111">
         <v>0.01195051448901618</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>2.467747245513739</v>
-      </c>
-      <c r="C112">
         <v>0.01136251651688558</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>2.509520679751542</v>
-      </c>
-      <c r="C113">
         <v>0.0120462742178935</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>2.5446088127544</v>
-      </c>
-      <c r="C114">
         <v>0.009997984398639082</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>2.602243751802358</v>
-      </c>
-      <c r="C115">
         <v>0.0162598870827646</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>2.632538175228656</v>
-      </c>
-      <c r="C116">
         <v>0.008409876042158482</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>2.673955342708697</v>
-      </c>
-      <c r="C117">
         <v>0.01140171568257053</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>2.618881301321069</v>
-      </c>
-      <c r="C118">
         <v>-0.01499039488787701</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>2.588874839639087</v>
-      </c>
-      <c r="C119">
         <v>-0.008291640201359418</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>2.620330171194531</v>
-      </c>
-      <c r="C120">
         <v>0.008764677778121621</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.602332285075366</v>
-      </c>
-      <c r="C121">
         <v>-0.004971338322224739</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>2.634289831666797</v>
-      </c>
-      <c r="C122">
         <v>0.008871348910213905</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.673960746147895</v>
-      </c>
-      <c r="C123">
         <v>0.01091572668074847</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.721573192202521</v>
-      </c>
-      <c r="C124">
         <v>0.01295943243393305</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>2.746729970219846</v>
-      </c>
-      <c r="C125">
         <v>0.006759716044288266</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.805931684955553</v>
-      </c>
-      <c r="C126">
         <v>0.01580090244193233</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.851961671493785</v>
-      </c>
-      <c r="C127">
         <v>0.01209427555417864</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.924114626397762</v>
-      </c>
-      <c r="C128">
         <v>0.01873148308767991</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.932077272949078</v>
-      </c>
-      <c r="C129">
         <v>0.002029157481219013</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>2.913946101996371</v>
-      </c>
-      <c r="C130">
         <v>-0.004611092227876923</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>3.084000785078151</v>
-      </c>
-      <c r="C131">
         <v>0.04344839674594403</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>3.185622767288533</v>
-      </c>
-      <c r="C132">
         <v>0.02488294874518182</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>3.246202165050017</v>
-      </c>
-      <c r="C133">
         <v>0.01447321011222624</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>3.313502970104268</v>
-      </c>
-      <c r="C134">
         <v>0.01584964691700153</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>3.295406492002203</v>
-      </c>
-      <c r="C135">
         <v>-0.004195309062607899</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>3.32951898556553</v>
-      </c>
-      <c r="C136">
         <v>0.007941621736345938</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>3.43758970921378</v>
-      </c>
-      <c r="C137">
         <v>0.0249613696137041</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>3.525353671028701</v>
-      </c>
-      <c r="C138">
         <v>0.01977739438882686</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>3.539325884105872</v>
-      </c>
-      <c r="C139">
         <v>0.003087540575363423</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>3.605056920798356</v>
-      </c>
-      <c r="C140">
         <v>0.01448035201055653</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>3.632980287394799</v>
-      </c>
-      <c r="C141">
         <v>0.006063631150861282</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.70364269666863</v>
-      </c>
-      <c r="C142">
         <v>0.01525204185869011</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>3.754510423885396</v>
-      </c>
-      <c r="C143">
         <v>0.01081453896419338</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>3.681158044029273</v>
-      </c>
-      <c r="C144">
         <v>-0.01542795647005413</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>3.735011102127855</v>
-      </c>
-      <c r="C145">
         <v>0.01150421703178117</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>3.842460818207607</v>
-      </c>
-      <c r="C146">
         <v>0.02269260066390655</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>3.91360369021091</v>
-      </c>
-      <c r="C147">
         <v>0.01469147086039535</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>3.990708384505519</v>
-      </c>
-      <c r="C148">
         <v>0.01569208653278653</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>4.062809826622479</v>
-      </c>
-      <c r="C149">
         <v>0.0144471358696916</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>4.058111272995687</v>
-      </c>
-      <c r="C150">
         <v>-0.0009280525612644919</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>4.141723232131166</v>
-      </c>
-      <c r="C151">
         <v>0.01653027278815866</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>4.303045430980665</v>
-      </c>
-      <c r="C152">
         <v>0.03137512300183332</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>4.407577622413045</v>
-      </c>
-      <c r="C153">
         <v>0.01971172843847357</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>4.535657780189036</v>
-      </c>
-      <c r="C154">
         <v>0.02368531100600957</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>4.557588621875555</v>
-      </c>
-      <c r="C155">
         <v>0.003961740872964414</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>4.608025487163687</v>
-      </c>
-      <c r="C156">
         <v>0.009075314622893238</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>4.68174543943497</v>
-      </c>
-      <c r="C157">
         <v>0.01314543816536196</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>4.801536721481832</v>
-      </c>
-      <c r="C158">
         <v>0.02108353556557341</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>4.836218848376364</v>
-      </c>
-      <c r="C159">
         <v>0.005978093143168772</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>4.924889895227868</v>
-      </c>
-      <c r="C160">
         <v>0.0151932354072315</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>4.971178775778527</v>
-      </c>
-      <c r="C161">
         <v>0.007812614473720725</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>4.82657950078706</v>
-      </c>
-      <c r="C162">
         <v>-0.02421620259939616</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>4.89304138726845</v>
-      </c>
-      <c r="C163">
         <v>0.01140667289829511</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>4.971306490913203</v>
-      </c>
-      <c r="C164">
         <v>0.01328093568354038</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>4.986317051034542</v>
-      </c>
-      <c r="C165">
         <v>0.002513781555875783</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>5.036879220692168</v>
-      </c>
-      <c r="C166">
         <v>0.00844628996870278</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>5.10569005146762</v>
-      </c>
-      <c r="C167">
         <v>0.01139841104317507</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>5.10506976435768</v>
-      </c>
-      <c r="C168">
         <v>-0.0001015916472522083</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>4.932432459019001</v>
-      </c>
-      <c r="C169">
         <v>-0.02827769575158035</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>5.063816002420962</v>
-      </c>
-      <c r="C170">
         <v>0.02214665641953006</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>5.068985791365675</v>
-      </c>
-      <c r="C171">
         <v>0.0008525636237393108</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>5.080491126624554</v>
-      </c>
-      <c r="C172">
         <v>0.001895759135776443</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>5.133203560273438</v>
-      </c>
-      <c r="C173">
         <v>0.008669107897892214</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>5.212270423455338</v>
-      </c>
-      <c r="C174">
         <v>0.01289160915741294</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>5.320904601117149</v>
-      </c>
-      <c r="C175">
         <v>0.01748703296167631</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>5.416124810245763</v>
-      </c>
-      <c r="C176">
         <v>0.01506433258172968</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>5.496767842786632</v>
-      </c>
-      <c r="C177">
         <v>0.01256880670589378</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>5.474054416844631</v>
-      </c>
-      <c r="C178">
         <v>-0.003496111680705849</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>5.514653004851152</v>
-      </c>
-      <c r="C179">
         <v>0.006270967988914133</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>5.474320875671935</v>
-      </c>
-      <c r="C180">
         <v>-0.006190986557408906</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>5.627391163858406</v>
-      </c>
-      <c r="C181">
         <v>0.02364267868799197</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>5.670438036310391</v>
-      </c>
-      <c r="C182">
         <v>0.006495296774805537</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>5.614234343611127</v>
-      </c>
-      <c r="C183">
         <v>-0.008425787391070916</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>5.201597966001394</v>
-      </c>
-      <c r="C184">
         <v>-0.06238611397376781</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>5.279058871633875</v>
-      </c>
-      <c r="C185">
         <v>0.01249047520609037</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>5.350508465013992</v>
-      </c>
-      <c r="C186">
         <v>0.01137902906164734</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>5.391553183128623</v>
-      </c>
-      <c r="C187">
         <v>0.006463217605448879</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>5.461328042876817</v>
-      </c>
-      <c r="C188">
         <v>0.010916729901016</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>5.493911778796389</v>
-      </c>
-      <c r="C189">
         <v>0.005042885255685636</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>5.498082596528215</v>
-      </c>
-      <c r="C190">
         <v>0.0006422658443627771</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>5.505943907812117</v>
-      </c>
-      <c r="C191">
         <v>0.001209789375115289</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.561683736038725</v>
-      </c>
-      <c r="C192">
-        <v>0.008567523639371855</v>
+        <v>0.008633574903722518</v>
       </c>
     </row>
   </sheetData>
